--- a/XinTongYuan_SatelliteCarBigScreen/Assets/StreamingAssets/卫星轨道数据.xlsx
+++ b/XinTongYuan_SatelliteCarBigScreen/Assets/StreamingAssets/卫星轨道数据.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="113">
   <si>
     <t>星座</t>
   </si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t>星链星座（美国）</t>
+  </si>
+  <si>
+    <t>星1星座（美国）</t>
   </si>
 </sst>
 </file>
@@ -7122,10 +7125,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
@@ -7135,10 +7138,10 @@
     <col min="3" max="3" width="20.225" customWidth="1"/>
     <col min="4" max="4" width="18.1083333333333" customWidth="1"/>
     <col min="5" max="5" width="23.1083333333333" customWidth="1"/>
-    <col min="6" max="9" width="20.6666666666667" customWidth="1"/>
+    <col min="6" max="10" width="20.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" spans="1:9">
+    <row r="1" ht="17.25" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
@@ -7166,8 +7169,11 @@
       <c r="I1" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="2" ht="14.25" spans="1:9">
+    <row r="2" ht="14.25" spans="1:10">
       <c r="A2" s="2">
         <v>1978</v>
       </c>
@@ -7195,8 +7201,11 @@
       <c r="I2" s="1">
         <v>0</v>
       </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" ht="14.25" spans="1:9">
+    <row r="3" ht="14.25" spans="1:10">
       <c r="A3" s="2">
         <v>1979</v>
       </c>
@@ -7224,8 +7233,11 @@
       <c r="I3" s="1">
         <v>0</v>
       </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" ht="14.25" spans="1:9">
+    <row r="4" ht="14.25" spans="1:10">
       <c r="A4" s="2">
         <v>1980</v>
       </c>
@@ -7253,8 +7265,11 @@
       <c r="I4" s="1">
         <v>0</v>
       </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" ht="14.25" spans="1:9">
+    <row r="5" ht="14.25" spans="1:10">
       <c r="A5" s="2">
         <v>1981</v>
       </c>
@@ -7282,8 +7297,11 @@
       <c r="I5" s="1">
         <v>0</v>
       </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" ht="14.25" spans="1:9">
+    <row r="6" ht="14.25" spans="1:10">
       <c r="A6" s="2">
         <v>1982</v>
       </c>
@@ -7311,8 +7329,11 @@
       <c r="I6" s="1">
         <v>0</v>
       </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" ht="14.25" spans="1:9">
+    <row r="7" ht="14.25" spans="1:10">
       <c r="A7" s="2">
         <v>1983</v>
       </c>
@@ -7340,8 +7361,11 @@
       <c r="I7" s="1">
         <v>0</v>
       </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" ht="14.25" spans="1:9">
+    <row r="8" ht="14.25" spans="1:10">
       <c r="A8" s="2">
         <v>1984</v>
       </c>
@@ -7369,8 +7393,11 @@
       <c r="I8" s="1">
         <v>0</v>
       </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" ht="14.25" spans="1:9">
+    <row r="9" ht="14.25" spans="1:10">
       <c r="A9" s="2">
         <v>1985</v>
       </c>
@@ -7398,8 +7425,11 @@
       <c r="I9" s="1">
         <v>0</v>
       </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" ht="14.25" spans="1:9">
+    <row r="10" ht="14.25" spans="1:10">
       <c r="A10" s="2">
         <v>1986</v>
       </c>
@@ -7427,8 +7457,11 @@
       <c r="I10" s="1">
         <v>0</v>
       </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" ht="14.25" spans="1:9">
+    <row r="11" ht="14.25" spans="1:10">
       <c r="A11" s="2">
         <v>1987</v>
       </c>
@@ -7456,8 +7489,11 @@
       <c r="I11" s="1">
         <v>0</v>
       </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" ht="14.25" spans="1:9">
+    <row r="12" ht="14.25" spans="1:10">
       <c r="A12" s="2">
         <v>1988</v>
       </c>
@@ -7485,8 +7521,11 @@
       <c r="I12" s="1">
         <v>0</v>
       </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" ht="14.25" spans="1:9">
+    <row r="13" ht="14.25" spans="1:10">
       <c r="A13" s="2">
         <v>1989</v>
       </c>
@@ -7514,8 +7553,11 @@
       <c r="I13" s="1">
         <v>0</v>
       </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" ht="14.25" spans="1:9">
+    <row r="14" ht="14.25" spans="1:10">
       <c r="A14" s="2">
         <v>1990</v>
       </c>
@@ -7543,8 +7585,11 @@
       <c r="I14" s="1">
         <v>0</v>
       </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" ht="14.25" spans="1:9">
+    <row r="15" ht="14.25" spans="1:10">
       <c r="A15" s="2">
         <v>1991</v>
       </c>
@@ -7572,8 +7617,11 @@
       <c r="I15" s="1">
         <v>0</v>
       </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" ht="14.25" spans="1:9">
+    <row r="16" ht="14.25" spans="1:10">
       <c r="A16" s="2">
         <v>1992</v>
       </c>
@@ -7601,8 +7649,11 @@
       <c r="I16" s="1">
         <v>0</v>
       </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" ht="14.25" spans="1:9">
+    <row r="17" ht="14.25" spans="1:10">
       <c r="A17" s="2">
         <v>1993</v>
       </c>
@@ -7630,8 +7681,11 @@
       <c r="I17" s="1">
         <v>0</v>
       </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" ht="14.25" spans="1:9">
+    <row r="18" ht="14.25" spans="1:10">
       <c r="A18" s="2">
         <v>1994</v>
       </c>
@@ -7659,8 +7713,11 @@
       <c r="I18" s="1">
         <v>0</v>
       </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" ht="14.25" spans="1:9">
+    <row r="19" ht="14.25" spans="1:10">
       <c r="A19" s="2">
         <v>1995</v>
       </c>
@@ -7688,8 +7745,11 @@
       <c r="I19" s="1">
         <v>0</v>
       </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" ht="14.25" spans="1:9">
+    <row r="20" ht="14.25" spans="1:10">
       <c r="A20" s="2">
         <v>1996</v>
       </c>
@@ -7717,8 +7777,11 @@
       <c r="I20" s="1">
         <v>0</v>
       </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" ht="14.25" spans="1:9">
+    <row r="21" ht="14.25" spans="1:10">
       <c r="A21" s="2">
         <v>1997</v>
       </c>
@@ -7746,8 +7809,11 @@
       <c r="I21" s="1">
         <v>0</v>
       </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" ht="14.25" spans="1:9">
+    <row r="22" ht="14.25" spans="1:10">
       <c r="A22" s="2">
         <v>1998</v>
       </c>
@@ -7775,8 +7841,11 @@
       <c r="I22" s="1">
         <v>0</v>
       </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" ht="14.25" spans="1:9">
+    <row r="23" ht="14.25" spans="1:10">
       <c r="A23" s="2">
         <v>1999</v>
       </c>
@@ -7804,8 +7873,11 @@
       <c r="I23" s="1">
         <v>0</v>
       </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" ht="14.25" spans="1:9">
+    <row r="24" ht="14.25" spans="1:10">
       <c r="A24" s="2">
         <v>2000</v>
       </c>
@@ -7833,8 +7905,11 @@
       <c r="I24" s="1">
         <v>0</v>
       </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" ht="14.25" spans="1:9">
+    <row r="25" ht="14.25" spans="1:10">
       <c r="A25" s="2">
         <v>2001</v>
       </c>
@@ -7862,8 +7937,11 @@
       <c r="I25" s="1">
         <v>0</v>
       </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" ht="14.25" spans="1:9">
+    <row r="26" ht="14.25" spans="1:10">
       <c r="A26" s="2">
         <v>2002</v>
       </c>
@@ -7891,8 +7969,11 @@
       <c r="I26" s="1">
         <v>0</v>
       </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" ht="14.25" spans="1:9">
+    <row r="27" ht="14.25" spans="1:10">
       <c r="A27" s="2">
         <v>2003</v>
       </c>
@@ -7920,8 +8001,11 @@
       <c r="I27" s="1">
         <v>0</v>
       </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" ht="14.25" spans="1:9">
+    <row r="28" ht="14.25" spans="1:10">
       <c r="A28" s="2">
         <v>2004</v>
       </c>
@@ -7949,8 +8033,11 @@
       <c r="I28" s="1">
         <v>0</v>
       </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" ht="14.25" spans="1:9">
+    <row r="29" ht="14.25" spans="1:10">
       <c r="A29" s="2">
         <v>2005</v>
       </c>
@@ -7978,8 +8065,11 @@
       <c r="I29" s="1">
         <v>0</v>
       </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" ht="14.25" spans="1:9">
+    <row r="30" ht="14.25" spans="1:10">
       <c r="A30" s="2">
         <v>2006</v>
       </c>
@@ -8007,8 +8097,11 @@
       <c r="I30" s="1">
         <v>0</v>
       </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" ht="14.25" spans="1:9">
+    <row r="31" ht="14.25" spans="1:10">
       <c r="A31" s="2">
         <v>2007</v>
       </c>
@@ -8036,8 +8129,11 @@
       <c r="I31" s="1">
         <v>0</v>
       </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" ht="14.25" spans="1:9">
+    <row r="32" ht="14.25" spans="1:10">
       <c r="A32" s="2">
         <v>2008</v>
       </c>
@@ -8065,8 +8161,11 @@
       <c r="I32" s="1">
         <v>0</v>
       </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" ht="14.25" spans="1:9">
+    <row r="33" ht="14.25" spans="1:10">
       <c r="A33" s="2">
         <v>2009</v>
       </c>
@@ -8094,8 +8193,11 @@
       <c r="I33" s="1">
         <v>0</v>
       </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" ht="14.25" spans="1:9">
+    <row r="34" ht="14.25" spans="1:10">
       <c r="A34" s="2">
         <v>2010</v>
       </c>
@@ -8123,8 +8225,11 @@
       <c r="I34" s="1">
         <v>0</v>
       </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" ht="14.25" spans="1:9">
+    <row r="35" ht="14.25" spans="1:10">
       <c r="A35" s="2">
         <v>2011</v>
       </c>
@@ -8152,8 +8257,11 @@
       <c r="I35" s="1">
         <v>0</v>
       </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" ht="14.25" spans="1:9">
+    <row r="36" ht="14.25" spans="1:10">
       <c r="A36" s="2">
         <v>2012</v>
       </c>
@@ -8181,8 +8289,11 @@
       <c r="I36" s="1">
         <v>0</v>
       </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" ht="14.25" spans="1:9">
+    <row r="37" ht="14.25" spans="1:10">
       <c r="A37" s="2">
         <v>2013</v>
       </c>
@@ -8210,8 +8321,11 @@
       <c r="I37" s="1">
         <v>0</v>
       </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" ht="14.25" spans="1:9">
+    <row r="38" ht="14.25" spans="1:10">
       <c r="A38" s="2">
         <v>2014</v>
       </c>
@@ -8239,8 +8353,11 @@
       <c r="I38" s="1">
         <v>0</v>
       </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" ht="14.25" spans="1:9">
+    <row r="39" ht="14.25" spans="1:10">
       <c r="A39" s="2">
         <v>2015</v>
       </c>
@@ -8268,8 +8385,11 @@
       <c r="I39" s="1">
         <v>0</v>
       </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" ht="14.25" spans="1:9">
+    <row r="40" ht="14.25" spans="1:10">
       <c r="A40" s="2">
         <v>2016</v>
       </c>
@@ -8297,8 +8417,11 @@
       <c r="I40" s="1">
         <v>0</v>
       </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" ht="14.25" spans="1:9">
+    <row r="41" ht="14.25" spans="1:10">
       <c r="A41" s="2">
         <v>2017</v>
       </c>
@@ -8326,8 +8449,11 @@
       <c r="I41" s="1">
         <v>0</v>
       </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" ht="14.25" spans="1:9">
+    <row r="42" ht="14.25" spans="1:10">
       <c r="A42" s="2">
         <v>2018</v>
       </c>
@@ -8355,8 +8481,11 @@
       <c r="I42" s="1">
         <v>0</v>
       </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" ht="14.25" spans="1:9">
+    <row r="43" ht="14.25" spans="1:10">
       <c r="A43" s="2">
         <v>2019</v>
       </c>
@@ -8384,8 +8513,11 @@
       <c r="I43" s="1">
         <v>120</v>
       </c>
+      <c r="J43" s="1">
+        <v>120</v>
+      </c>
     </row>
-    <row r="44" ht="14.25" spans="1:9">
+    <row r="44" ht="14.25" spans="1:10">
       <c r="A44" s="2">
         <v>2020</v>
       </c>
@@ -8413,8 +8545,11 @@
       <c r="I44" s="1">
         <v>543</v>
       </c>
+      <c r="J44" s="1">
+        <v>543</v>
+      </c>
     </row>
-    <row r="45" ht="14.25" spans="1:9">
+    <row r="45" ht="14.25" spans="1:10">
       <c r="A45" s="2">
         <v>2021</v>
       </c>
@@ -8442,8 +8577,11 @@
       <c r="I45" s="1">
         <v>1719</v>
       </c>
+      <c r="J45" s="1">
+        <v>1719</v>
+      </c>
     </row>
-    <row r="46" ht="14.25" spans="1:9">
+    <row r="46" ht="14.25" spans="1:10">
       <c r="A46" s="2">
         <v>2022</v>
       </c>
@@ -8471,8 +8609,11 @@
       <c r="I46" s="1">
         <v>3374</v>
       </c>
+      <c r="J46" s="1">
+        <v>3374</v>
+      </c>
     </row>
-    <row r="47" ht="14.25" spans="1:9">
+    <row r="47" ht="14.25" spans="1:10">
       <c r="A47" s="2">
         <v>2023</v>
       </c>
@@ -8500,8 +8641,11 @@
       <c r="I47" s="1">
         <v>5144</v>
       </c>
+      <c r="J47" s="1">
+        <v>5144</v>
+      </c>
     </row>
-    <row r="48" ht="14.25" spans="1:9">
+    <row r="48" ht="14.25" spans="1:10">
       <c r="A48" s="2">
         <v>2024</v>
       </c>
@@ -8529,8 +8673,11 @@
       <c r="I48" s="1">
         <v>7563</v>
       </c>
+      <c r="J48" s="1">
+        <v>7563</v>
+      </c>
     </row>
-    <row r="49" ht="14.25" spans="1:9">
+    <row r="49" ht="14.25" spans="1:10">
       <c r="A49" s="2">
         <v>2025</v>
       </c>
@@ -8556,6 +8703,9 @@
         <v>648</v>
       </c>
       <c r="I49" s="1">
+        <v>7782</v>
+      </c>
+      <c r="J49" s="1">
         <v>7782</v>
       </c>
     </row>

--- a/XinTongYuan_SatelliteCarBigScreen/Assets/StreamingAssets/卫星轨道数据.xlsx
+++ b/XinTongYuan_SatelliteCarBigScreen/Assets/StreamingAssets/卫星轨道数据.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="112">
   <si>
     <t>星座</t>
   </si>
@@ -333,12 +333,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">GPS </t>
     </r>
     <r>
@@ -368,9 +362,6 @@
   </si>
   <si>
     <t>星链星座（美国）</t>
-  </si>
-  <si>
-    <t>星1星座（美国）</t>
   </si>
 </sst>
 </file>
@@ -395,6 +386,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -553,12 +550,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -934,10 +925,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -946,34 +937,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,102 +973,108 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1104,10 +1098,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6472,636 +6466,636 @@
     <col min="1" max="1" width="10.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="23.1083333333333" customWidth="1"/>
     <col min="3" max="3" width="14.1083333333333" customWidth="1"/>
-    <col min="4" max="4" width="9.66666666666667" style="3" customWidth="1"/>
-    <col min="5" max="6" width="8.89166666666667" style="3"/>
-    <col min="7" max="7" width="14.1083333333333" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.89166666666667" style="3"/>
+    <col min="4" max="4" width="9.66666666666667" style="4" customWidth="1"/>
+    <col min="5" max="6" width="8.89166666666667" style="4"/>
+    <col min="7" max="7" width="14.1083333333333" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.89166666666667" style="4"/>
     <col min="9" max="9" width="26.5583333333333" customWidth="1"/>
     <col min="10" max="10" width="13.775" customWidth="1"/>
     <col min="12" max="13" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>1</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>8</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="6"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>2</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>30</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="8"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>1</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>12</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>2</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>31</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>1.7</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>32</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>2.13</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>24</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <v>13.41</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>90</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="10">
         <v>15.01</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="11">
         <v>7782</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <v>13.16</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>648</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="5">
         <v>13.41</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="5">
         <v>2</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4" t="s">
+      <c r="I11" s="5"/>
+      <c r="J11" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="5">
         <v>13.41</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>3</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4" t="s">
+      <c r="I12" s="5"/>
+      <c r="J12" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="5">
         <v>13.41</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>1</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4" t="s">
+      <c r="I13" s="5"/>
+      <c r="J13" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="5">
         <v>13.41</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <v>3</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4" t="s">
+      <c r="I14" s="5"/>
+      <c r="J14" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="5">
         <v>1</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <v>3</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4" t="s">
+      <c r="I15" s="5"/>
+      <c r="J15" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="5">
         <v>13.6</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="5">
         <v>1</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4" t="s">
+      <c r="I16" s="5"/>
+      <c r="J16" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="5">
         <v>21.18</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="5">
         <v>10</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4" t="s">
+      <c r="I17" s="5"/>
+      <c r="J17" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="5">
         <v>20.87</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>9</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4" t="s">
+      <c r="I18" s="5"/>
+      <c r="J18" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="4"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="5">
         <v>15.51</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="5">
         <v>4</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4" t="s">
+      <c r="I19" s="5"/>
+      <c r="J19" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="5">
         <v>21.18</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="5">
         <v>10</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4" t="s">
+      <c r="I20" s="5"/>
+      <c r="J20" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="5">
         <v>13.65</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="5">
         <v>5</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4" t="s">
+      <c r="I21" s="5"/>
+      <c r="J21" s="5" t="s">
         <v>102</v>
       </c>
     </row>
@@ -7128,7 +7122,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
@@ -7148,7 +7142,7 @@
       <c r="B1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -7169,12 +7163,10 @@
       <c r="I1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" ht="14.25" spans="1:10">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1978</v>
       </c>
       <c r="B2" s="1">
@@ -7201,12 +7193,10 @@
       <c r="I2" s="1">
         <v>0</v>
       </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" ht="14.25" spans="1:10">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>1979</v>
       </c>
       <c r="B3" s="1">
@@ -7233,12 +7223,10 @@
       <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" ht="14.25" spans="1:10">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>1980</v>
       </c>
       <c r="B4" s="1">
@@ -7265,12 +7253,10 @@
       <c r="I4" s="1">
         <v>0</v>
       </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" ht="14.25" spans="1:10">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>1981</v>
       </c>
       <c r="B5" s="1">
@@ -7297,12 +7283,10 @@
       <c r="I5" s="1">
         <v>0</v>
       </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" ht="14.25" spans="1:10">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>1982</v>
       </c>
       <c r="B6" s="1">
@@ -7329,12 +7313,10 @@
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" ht="14.25" spans="1:10">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>1983</v>
       </c>
       <c r="B7" s="1">
@@ -7361,12 +7343,10 @@
       <c r="I7" s="1">
         <v>0</v>
       </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" ht="14.25" spans="1:10">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>1984</v>
       </c>
       <c r="B8" s="1">
@@ -7393,12 +7373,10 @@
       <c r="I8" s="1">
         <v>0</v>
       </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" ht="14.25" spans="1:10">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>1985</v>
       </c>
       <c r="B9" s="1">
@@ -7425,12 +7403,10 @@
       <c r="I9" s="1">
         <v>0</v>
       </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" ht="14.25" spans="1:10">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>1986</v>
       </c>
       <c r="B10" s="1">
@@ -7457,12 +7433,10 @@
       <c r="I10" s="1">
         <v>0</v>
       </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" ht="14.25" spans="1:10">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>1987</v>
       </c>
       <c r="B11" s="1">
@@ -7489,12 +7463,10 @@
       <c r="I11" s="1">
         <v>0</v>
       </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" ht="14.25" spans="1:10">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>1988</v>
       </c>
       <c r="B12" s="1">
@@ -7521,12 +7493,10 @@
       <c r="I12" s="1">
         <v>0</v>
       </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" ht="14.25" spans="1:10">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>1989</v>
       </c>
       <c r="B13" s="1">
@@ -7553,12 +7523,10 @@
       <c r="I13" s="1">
         <v>0</v>
       </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" ht="14.25" spans="1:10">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>1990</v>
       </c>
       <c r="B14" s="1">
@@ -7585,12 +7553,10 @@
       <c r="I14" s="1">
         <v>0</v>
       </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" ht="14.25" spans="1:10">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>1991</v>
       </c>
       <c r="B15" s="1">
@@ -7617,12 +7583,10 @@
       <c r="I15" s="1">
         <v>0</v>
       </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" ht="14.25" spans="1:10">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>1992</v>
       </c>
       <c r="B16" s="1">
@@ -7649,12 +7613,10 @@
       <c r="I16" s="1">
         <v>0</v>
       </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" ht="14.25" spans="1:10">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>1993</v>
       </c>
       <c r="B17" s="1">
@@ -7681,12 +7643,10 @@
       <c r="I17" s="1">
         <v>0</v>
       </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
+      <c r="J17" s="1"/>
     </row>
     <row r="18" ht="14.25" spans="1:10">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>1994</v>
       </c>
       <c r="B18" s="1">
@@ -7713,12 +7673,10 @@
       <c r="I18" s="1">
         <v>0</v>
       </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
+      <c r="J18" s="1"/>
     </row>
     <row r="19" ht="14.25" spans="1:10">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>1995</v>
       </c>
       <c r="B19" s="1">
@@ -7745,12 +7703,10 @@
       <c r="I19" s="1">
         <v>0</v>
       </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
+      <c r="J19" s="1"/>
     </row>
     <row r="20" ht="14.25" spans="1:10">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>1996</v>
       </c>
       <c r="B20" s="1">
@@ -7777,12 +7733,10 @@
       <c r="I20" s="1">
         <v>0</v>
       </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
+      <c r="J20" s="1"/>
     </row>
     <row r="21" ht="14.25" spans="1:10">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>1997</v>
       </c>
       <c r="B21" s="1">
@@ -7809,12 +7763,10 @@
       <c r="I21" s="1">
         <v>0</v>
       </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
+      <c r="J21" s="1"/>
     </row>
     <row r="22" ht="14.25" spans="1:10">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>1998</v>
       </c>
       <c r="B22" s="1">
@@ -7841,12 +7793,10 @@
       <c r="I22" s="1">
         <v>0</v>
       </c>
-      <c r="J22" s="1">
-        <v>0</v>
-      </c>
+      <c r="J22" s="1"/>
     </row>
     <row r="23" ht="14.25" spans="1:10">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>1999</v>
       </c>
       <c r="B23" s="1">
@@ -7873,12 +7823,10 @@
       <c r="I23" s="1">
         <v>0</v>
       </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
+      <c r="J23" s="1"/>
     </row>
     <row r="24" ht="14.25" spans="1:10">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>2000</v>
       </c>
       <c r="B24" s="1">
@@ -7905,12 +7853,10 @@
       <c r="I24" s="1">
         <v>0</v>
       </c>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
+      <c r="J24" s="1"/>
     </row>
     <row r="25" ht="14.25" spans="1:10">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>2001</v>
       </c>
       <c r="B25" s="1">
@@ -7937,12 +7883,10 @@
       <c r="I25" s="1">
         <v>0</v>
       </c>
-      <c r="J25" s="1">
-        <v>0</v>
-      </c>
+      <c r="J25" s="1"/>
     </row>
     <row r="26" ht="14.25" spans="1:10">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>2002</v>
       </c>
       <c r="B26" s="1">
@@ -7969,12 +7913,10 @@
       <c r="I26" s="1">
         <v>0</v>
       </c>
-      <c r="J26" s="1">
-        <v>0</v>
-      </c>
+      <c r="J26" s="1"/>
     </row>
     <row r="27" ht="14.25" spans="1:10">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>2003</v>
       </c>
       <c r="B27" s="1">
@@ -8001,12 +7943,10 @@
       <c r="I27" s="1">
         <v>0</v>
       </c>
-      <c r="J27" s="1">
-        <v>0</v>
-      </c>
+      <c r="J27" s="1"/>
     </row>
     <row r="28" ht="14.25" spans="1:10">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>2004</v>
       </c>
       <c r="B28" s="1">
@@ -8033,12 +7973,10 @@
       <c r="I28" s="1">
         <v>0</v>
       </c>
-      <c r="J28" s="1">
-        <v>0</v>
-      </c>
+      <c r="J28" s="1"/>
     </row>
     <row r="29" ht="14.25" spans="1:10">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>2005</v>
       </c>
       <c r="B29" s="1">
@@ -8065,12 +8003,10 @@
       <c r="I29" s="1">
         <v>0</v>
       </c>
-      <c r="J29" s="1">
-        <v>0</v>
-      </c>
+      <c r="J29" s="1"/>
     </row>
     <row r="30" ht="14.25" spans="1:10">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>2006</v>
       </c>
       <c r="B30" s="1">
@@ -8097,12 +8033,10 @@
       <c r="I30" s="1">
         <v>0</v>
       </c>
-      <c r="J30" s="1">
-        <v>0</v>
-      </c>
+      <c r="J30" s="1"/>
     </row>
     <row r="31" ht="14.25" spans="1:10">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>2007</v>
       </c>
       <c r="B31" s="1">
@@ -8129,12 +8063,10 @@
       <c r="I31" s="1">
         <v>0</v>
       </c>
-      <c r="J31" s="1">
-        <v>0</v>
-      </c>
+      <c r="J31" s="1"/>
     </row>
     <row r="32" ht="14.25" spans="1:10">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>2008</v>
       </c>
       <c r="B32" s="1">
@@ -8161,12 +8093,10 @@
       <c r="I32" s="1">
         <v>0</v>
       </c>
-      <c r="J32" s="1">
-        <v>0</v>
-      </c>
+      <c r="J32" s="1"/>
     </row>
     <row r="33" ht="14.25" spans="1:10">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>2009</v>
       </c>
       <c r="B33" s="1">
@@ -8193,12 +8123,10 @@
       <c r="I33" s="1">
         <v>0</v>
       </c>
-      <c r="J33" s="1">
-        <v>0</v>
-      </c>
+      <c r="J33" s="1"/>
     </row>
     <row r="34" ht="14.25" spans="1:10">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>2010</v>
       </c>
       <c r="B34" s="1">
@@ -8225,12 +8153,10 @@
       <c r="I34" s="1">
         <v>0</v>
       </c>
-      <c r="J34" s="1">
-        <v>0</v>
-      </c>
+      <c r="J34" s="1"/>
     </row>
     <row r="35" ht="14.25" spans="1:10">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>2011</v>
       </c>
       <c r="B35" s="1">
@@ -8257,12 +8183,10 @@
       <c r="I35" s="1">
         <v>0</v>
       </c>
-      <c r="J35" s="1">
-        <v>0</v>
-      </c>
+      <c r="J35" s="1"/>
     </row>
     <row r="36" ht="14.25" spans="1:10">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>2012</v>
       </c>
       <c r="B36" s="1">
@@ -8289,12 +8213,10 @@
       <c r="I36" s="1">
         <v>0</v>
       </c>
-      <c r="J36" s="1">
-        <v>0</v>
-      </c>
+      <c r="J36" s="1"/>
     </row>
     <row r="37" ht="14.25" spans="1:10">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>2013</v>
       </c>
       <c r="B37" s="1">
@@ -8321,12 +8243,10 @@
       <c r="I37" s="1">
         <v>0</v>
       </c>
-      <c r="J37" s="1">
-        <v>0</v>
-      </c>
+      <c r="J37" s="1"/>
     </row>
     <row r="38" ht="14.25" spans="1:10">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>2014</v>
       </c>
       <c r="B38" s="1">
@@ -8353,12 +8273,10 @@
       <c r="I38" s="1">
         <v>0</v>
       </c>
-      <c r="J38" s="1">
-        <v>0</v>
-      </c>
+      <c r="J38" s="1"/>
     </row>
     <row r="39" ht="14.25" spans="1:10">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>2015</v>
       </c>
       <c r="B39" s="1">
@@ -8385,12 +8303,10 @@
       <c r="I39" s="1">
         <v>0</v>
       </c>
-      <c r="J39" s="1">
-        <v>0</v>
-      </c>
+      <c r="J39" s="1"/>
     </row>
     <row r="40" ht="14.25" spans="1:10">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>2016</v>
       </c>
       <c r="B40" s="1">
@@ -8417,12 +8333,10 @@
       <c r="I40" s="1">
         <v>0</v>
       </c>
-      <c r="J40" s="1">
-        <v>0</v>
-      </c>
+      <c r="J40" s="1"/>
     </row>
     <row r="41" ht="14.25" spans="1:10">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>2017</v>
       </c>
       <c r="B41" s="1">
@@ -8449,12 +8363,10 @@
       <c r="I41" s="1">
         <v>0</v>
       </c>
-      <c r="J41" s="1">
-        <v>0</v>
-      </c>
+      <c r="J41" s="1"/>
     </row>
     <row r="42" ht="14.25" spans="1:10">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>2018</v>
       </c>
       <c r="B42" s="1">
@@ -8481,12 +8393,10 @@
       <c r="I42" s="1">
         <v>0</v>
       </c>
-      <c r="J42" s="1">
-        <v>0</v>
-      </c>
+      <c r="J42" s="1"/>
     </row>
     <row r="43" ht="14.25" spans="1:10">
-      <c r="A43" s="2">
+      <c r="A43" s="3">
         <v>2019</v>
       </c>
       <c r="B43" s="1">
@@ -8513,12 +8423,10 @@
       <c r="I43" s="1">
         <v>120</v>
       </c>
-      <c r="J43" s="1">
-        <v>120</v>
-      </c>
+      <c r="J43" s="1"/>
     </row>
     <row r="44" ht="14.25" spans="1:10">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <v>2020</v>
       </c>
       <c r="B44" s="1">
@@ -8545,12 +8453,10 @@
       <c r="I44" s="1">
         <v>543</v>
       </c>
-      <c r="J44" s="1">
-        <v>543</v>
-      </c>
+      <c r="J44" s="1"/>
     </row>
     <row r="45" ht="14.25" spans="1:10">
-      <c r="A45" s="2">
+      <c r="A45" s="3">
         <v>2021</v>
       </c>
       <c r="B45" s="1">
@@ -8577,12 +8483,10 @@
       <c r="I45" s="1">
         <v>1719</v>
       </c>
-      <c r="J45" s="1">
-        <v>1719</v>
-      </c>
+      <c r="J45" s="1"/>
     </row>
     <row r="46" ht="14.25" spans="1:10">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>2022</v>
       </c>
       <c r="B46" s="1">
@@ -8609,12 +8513,10 @@
       <c r="I46" s="1">
         <v>3374</v>
       </c>
-      <c r="J46" s="1">
-        <v>3374</v>
-      </c>
+      <c r="J46" s="1"/>
     </row>
     <row r="47" ht="14.25" spans="1:10">
-      <c r="A47" s="2">
+      <c r="A47" s="3">
         <v>2023</v>
       </c>
       <c r="B47" s="1">
@@ -8641,12 +8543,10 @@
       <c r="I47" s="1">
         <v>5144</v>
       </c>
-      <c r="J47" s="1">
-        <v>5144</v>
-      </c>
+      <c r="J47" s="1"/>
     </row>
     <row r="48" ht="14.25" spans="1:10">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <v>2024</v>
       </c>
       <c r="B48" s="1">
@@ -8673,12 +8573,10 @@
       <c r="I48" s="1">
         <v>7563</v>
       </c>
-      <c r="J48" s="1">
-        <v>7563</v>
-      </c>
+      <c r="J48" s="1"/>
     </row>
     <row r="49" ht="14.25" spans="1:10">
-      <c r="A49" s="2">
+      <c r="A49" s="3">
         <v>2025</v>
       </c>
       <c r="B49" s="1">
@@ -8705,9 +8603,7 @@
       <c r="I49" s="1">
         <v>7782</v>
       </c>
-      <c r="J49" s="1">
-        <v>7782</v>
-      </c>
+      <c r="J49" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
